--- a/uploads/template.xlsx
+++ b/uploads/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EADBC-4A50-446A-8BFF-ACC9F7D5D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1788CCF-CBB8-4018-BA9C-2D15E2337077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98816CEA-3CCA-4DFF-BAD4-CFA1BCE9CF08}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NAME</t>
   </si>
@@ -55,31 +66,13 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Rahil</t>
-  </si>
-  <si>
-    <t>rahil.nk@somaiya.edu</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>ahbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +84,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,17 +106,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC68457-EC7B-494D-9B5D-075DDB88FA22}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,107 +478,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="e">
         <f>AVERAGE(D2,E2)</f>
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>43</v>
-      </c>
-      <c r="I2">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>88</v>
-      </c>
-      <c r="H4">
-        <v>97</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>77</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D5C35B2B-68EF-49B4-9630-67CDD159D2A6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>